--- a/used_data/data with technology fixed.xlsx
+++ b/used_data/data with technology fixed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="1985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4473" uniqueCount="1985">
   <si>
     <t>Reward Range</t>
   </si>
@@ -6634,6 +6634,9 @@
       <c r="S2" t="s">
         <v>1936</v>
       </c>
+      <c r="T2" t="s">
+        <v>1936</v>
+      </c>
       <c r="U2" t="s">
         <v>1964</v>
       </c>
@@ -6686,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -6928,6 +6931,9 @@
       <c r="S5" t="s">
         <v>1936</v>
       </c>
+      <c r="T5" t="s">
+        <v>1936</v>
+      </c>
       <c r="U5" t="s">
         <v>1936</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -7035,6 +7041,9 @@
       <c r="S6" t="s">
         <v>1938</v>
       </c>
+      <c r="T6" t="s">
+        <v>1936</v>
+      </c>
       <c r="U6" t="s">
         <v>1936</v>
       </c>
@@ -7087,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -7145,6 +7154,9 @@
       <c r="S7" t="s">
         <v>1936</v>
       </c>
+      <c r="T7" t="s">
+        <v>1936</v>
+      </c>
       <c r="U7" t="s">
         <v>1966</v>
       </c>
@@ -7197,7 +7209,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -7365,6 +7377,9 @@
       <c r="S9" t="s">
         <v>1936</v>
       </c>
+      <c r="T9" t="s">
+        <v>1936</v>
+      </c>
       <c r="U9" t="s">
         <v>1936</v>
       </c>
@@ -7417,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -7457,6 +7472,9 @@
       <c r="S10" t="s">
         <v>473</v>
       </c>
+      <c r="T10" t="s">
+        <v>1936</v>
+      </c>
       <c r="U10" t="s">
         <v>1967</v>
       </c>
@@ -7509,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="AL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -7653,6 +7671,9 @@
       <c r="S12" t="s">
         <v>1936</v>
       </c>
+      <c r="T12" t="s">
+        <v>1936</v>
+      </c>
       <c r="U12" t="s">
         <v>1936</v>
       </c>
@@ -7705,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -7861,6 +7882,9 @@
       <c r="S14" t="s">
         <v>1939</v>
       </c>
+      <c r="T14" t="s">
+        <v>1936</v>
+      </c>
       <c r="U14" t="s">
         <v>1968</v>
       </c>
@@ -7913,7 +7937,7 @@
         <v>1</v>
       </c>
       <c r="AL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38">
@@ -7947,6 +7971,9 @@
       <c r="S15" t="s">
         <v>1936</v>
       </c>
+      <c r="T15" t="s">
+        <v>1936</v>
+      </c>
       <c r="U15" t="s">
         <v>1936</v>
       </c>
@@ -7999,7 +8026,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:38">
@@ -8149,6 +8176,9 @@
       <c r="S17" t="s">
         <v>1940</v>
       </c>
+      <c r="T17" t="s">
+        <v>1936</v>
+      </c>
       <c r="U17" t="s">
         <v>1969</v>
       </c>
@@ -8201,7 +8231,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:38">
@@ -8259,6 +8289,9 @@
       <c r="S18" t="s">
         <v>1936</v>
       </c>
+      <c r="T18" t="s">
+        <v>1936</v>
+      </c>
       <c r="U18" t="s">
         <v>1936</v>
       </c>
@@ -8311,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -8461,6 +8494,9 @@
       <c r="S20" t="s">
         <v>1942</v>
       </c>
+      <c r="T20" t="s">
+        <v>1936</v>
+      </c>
       <c r="U20" t="s">
         <v>1936</v>
       </c>
@@ -8513,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="AL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:38">
@@ -8568,6 +8604,9 @@
       <c r="S21" t="s">
         <v>473</v>
       </c>
+      <c r="T21" t="s">
+        <v>1936</v>
+      </c>
       <c r="U21" t="s">
         <v>1936</v>
       </c>
@@ -8620,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="AL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38">
@@ -8660,6 +8699,9 @@
       <c r="S22" t="s">
         <v>1938</v>
       </c>
+      <c r="T22" t="s">
+        <v>1936</v>
+      </c>
       <c r="U22" t="s">
         <v>1964</v>
       </c>
@@ -8712,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="AL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:38">
@@ -9049,6 +9091,9 @@
       <c r="S26" t="s">
         <v>1944</v>
       </c>
+      <c r="T26" t="s">
+        <v>1936</v>
+      </c>
       <c r="U26" t="s">
         <v>1972</v>
       </c>
@@ -9101,7 +9146,7 @@
         <v>1</v>
       </c>
       <c r="AL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:38">
@@ -9156,6 +9201,9 @@
       <c r="S27" t="s">
         <v>1936</v>
       </c>
+      <c r="T27" t="s">
+        <v>1936</v>
+      </c>
       <c r="U27" t="s">
         <v>1973</v>
       </c>
@@ -9208,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:38">
@@ -9563,6 +9611,9 @@
       <c r="S31" t="s">
         <v>1943</v>
       </c>
+      <c r="T31" t="s">
+        <v>1936</v>
+      </c>
       <c r="U31" t="s">
         <v>1936</v>
       </c>
@@ -9615,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="AL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:38">
@@ -9875,6 +9926,9 @@
       <c r="S34" t="s">
         <v>1936</v>
       </c>
+      <c r="T34" t="s">
+        <v>1936</v>
+      </c>
       <c r="U34" t="s">
         <v>1967</v>
       </c>
@@ -9927,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:38">
@@ -9976,6 +10030,9 @@
       <c r="S35" t="s">
         <v>1936</v>
       </c>
+      <c r="T35" t="s">
+        <v>1936</v>
+      </c>
       <c r="U35" t="s">
         <v>1976</v>
       </c>
@@ -10028,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:38">
@@ -10285,6 +10342,9 @@
       <c r="S38" t="s">
         <v>1936</v>
       </c>
+      <c r="T38" t="s">
+        <v>1936</v>
+      </c>
       <c r="U38" t="s">
         <v>1936</v>
       </c>
@@ -10337,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:38">
@@ -10487,6 +10547,9 @@
       <c r="S40" t="s">
         <v>1938</v>
       </c>
+      <c r="T40" t="s">
+        <v>1936</v>
+      </c>
       <c r="U40" t="s">
         <v>1936</v>
       </c>
@@ -10539,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="AL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:38">
@@ -10793,6 +10856,9 @@
       <c r="S43" t="s">
         <v>1936</v>
       </c>
+      <c r="T43" t="s">
+        <v>1936</v>
+      </c>
       <c r="U43" t="s">
         <v>1967</v>
       </c>
@@ -10845,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:38">
@@ -10885,6 +10951,9 @@
       <c r="S44" t="s">
         <v>1936</v>
       </c>
+      <c r="T44" t="s">
+        <v>1936</v>
+      </c>
       <c r="U44" t="s">
         <v>1936</v>
       </c>
@@ -10937,7 +11006,7 @@
         <v>0</v>
       </c>
       <c r="AL44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:38">
@@ -10971,6 +11040,9 @@
       <c r="S45" t="s">
         <v>1936</v>
       </c>
+      <c r="T45" t="s">
+        <v>1936</v>
+      </c>
       <c r="U45" t="s">
         <v>1936</v>
       </c>
@@ -11023,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="AL45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:38">
@@ -11197,6 +11269,9 @@
       <c r="S47" t="s">
         <v>1946</v>
       </c>
+      <c r="T47" t="s">
+        <v>1936</v>
+      </c>
       <c r="U47" t="s">
         <v>1936</v>
       </c>
@@ -11249,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="AL47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:38">
@@ -11304,6 +11379,9 @@
       <c r="S48" t="s">
         <v>1936</v>
       </c>
+      <c r="T48" t="s">
+        <v>1936</v>
+      </c>
       <c r="U48" t="s">
         <v>1936</v>
       </c>
@@ -11356,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="AL48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:38">
@@ -11506,6 +11584,9 @@
       <c r="S50" t="s">
         <v>1936</v>
       </c>
+      <c r="T50" t="s">
+        <v>1936</v>
+      </c>
       <c r="U50" t="s">
         <v>1936</v>
       </c>
@@ -11558,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="AL50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:38">
@@ -11616,6 +11697,9 @@
       <c r="S51" t="s">
         <v>1946</v>
       </c>
+      <c r="T51" t="s">
+        <v>1936</v>
+      </c>
       <c r="U51" t="s">
         <v>1936</v>
       </c>
@@ -11668,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="AL51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:38">
@@ -11931,6 +12015,9 @@
       <c r="S54" t="s">
         <v>1936</v>
       </c>
+      <c r="T54" t="s">
+        <v>1936</v>
+      </c>
       <c r="U54" t="s">
         <v>1976</v>
       </c>
@@ -11983,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="AL54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:38">
@@ -12552,6 +12639,9 @@
       <c r="S60" t="s">
         <v>1936</v>
       </c>
+      <c r="T60" t="s">
+        <v>1936</v>
+      </c>
       <c r="U60" t="s">
         <v>1936</v>
       </c>
@@ -12604,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="AL60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:38">
@@ -12849,6 +12939,9 @@
       <c r="S63" t="s">
         <v>1936</v>
       </c>
+      <c r="T63" t="s">
+        <v>1936</v>
+      </c>
       <c r="U63" t="s">
         <v>1967</v>
       </c>
@@ -12901,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="AL63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:38">
@@ -13051,6 +13144,9 @@
       <c r="S65" t="s">
         <v>1936</v>
       </c>
+      <c r="T65" t="s">
+        <v>1936</v>
+      </c>
       <c r="U65" t="s">
         <v>1936</v>
       </c>
@@ -13103,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="AL65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:38">
@@ -13250,6 +13346,9 @@
       <c r="S67" t="s">
         <v>1936</v>
       </c>
+      <c r="T67" t="s">
+        <v>1936</v>
+      </c>
       <c r="U67" t="s">
         <v>1936</v>
       </c>
@@ -13302,7 +13401,7 @@
         <v>0</v>
       </c>
       <c r="AL67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:38">
@@ -13339,6 +13438,9 @@
       <c r="S68" t="s">
         <v>1936</v>
       </c>
+      <c r="T68" t="s">
+        <v>1936</v>
+      </c>
       <c r="U68" t="s">
         <v>1936</v>
       </c>
@@ -13391,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="AL68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:38">
@@ -13672,6 +13774,9 @@
       <c r="S71" t="s">
         <v>1936</v>
       </c>
+      <c r="T71" t="s">
+        <v>1936</v>
+      </c>
       <c r="U71" t="s">
         <v>1979</v>
       </c>
@@ -13724,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="AL71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:38">
@@ -14079,6 +14184,9 @@
       <c r="S75" t="s">
         <v>1936</v>
       </c>
+      <c r="T75" t="s">
+        <v>1936</v>
+      </c>
       <c r="U75" t="s">
         <v>1936</v>
       </c>
@@ -14131,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:38">
@@ -14168,6 +14276,9 @@
       <c r="S76" t="s">
         <v>1936</v>
       </c>
+      <c r="T76" t="s">
+        <v>1936</v>
+      </c>
       <c r="U76" t="s">
         <v>1936</v>
       </c>
@@ -14220,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="AL76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:38">
@@ -14254,6 +14365,9 @@
       <c r="S77" t="s">
         <v>1936</v>
       </c>
+      <c r="T77" t="s">
+        <v>1936</v>
+      </c>
       <c r="U77" t="s">
         <v>1936</v>
       </c>
@@ -14306,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="AL77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:38">
@@ -14340,6 +14454,9 @@
       <c r="S78" t="s">
         <v>1936</v>
       </c>
+      <c r="T78" t="s">
+        <v>1936</v>
+      </c>
       <c r="U78" t="s">
         <v>1936</v>
       </c>
@@ -14392,7 +14509,7 @@
         <v>0</v>
       </c>
       <c r="AL78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:38">
@@ -14922,6 +15039,9 @@
       <c r="S84" t="s">
         <v>1936</v>
       </c>
+      <c r="T84" t="s">
+        <v>1936</v>
+      </c>
       <c r="U84" t="s">
         <v>1936</v>
       </c>
@@ -14974,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="AL84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:38">
@@ -15029,6 +15149,9 @@
       <c r="S85" t="s">
         <v>1936</v>
       </c>
+      <c r="T85" t="s">
+        <v>1936</v>
+      </c>
       <c r="U85" t="s">
         <v>1936</v>
       </c>
@@ -15081,7 +15204,7 @@
         <v>0</v>
       </c>
       <c r="AL85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:38">
@@ -15121,6 +15244,9 @@
       <c r="S86" t="s">
         <v>1949</v>
       </c>
+      <c r="T86" t="s">
+        <v>1936</v>
+      </c>
       <c r="U86" t="s">
         <v>1970</v>
       </c>
@@ -15173,7 +15299,7 @@
         <v>1</v>
       </c>
       <c r="AL86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:38">
@@ -15210,6 +15336,9 @@
       <c r="S87" t="s">
         <v>1936</v>
       </c>
+      <c r="T87" t="s">
+        <v>1936</v>
+      </c>
       <c r="U87" t="s">
         <v>1936</v>
       </c>
@@ -15262,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="AL87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:38">
@@ -15287,6 +15416,9 @@
       <c r="S88" t="s">
         <v>1948</v>
       </c>
+      <c r="T88" t="s">
+        <v>1936</v>
+      </c>
       <c r="U88" t="s">
         <v>1973</v>
       </c>
@@ -15339,7 +15471,7 @@
         <v>1</v>
       </c>
       <c r="AL88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:38">
@@ -15486,6 +15618,9 @@
       <c r="S90" t="s">
         <v>1936</v>
       </c>
+      <c r="T90" t="s">
+        <v>1936</v>
+      </c>
       <c r="U90" t="s">
         <v>1936</v>
       </c>
@@ -15538,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="AL90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:38">
@@ -15798,6 +15933,9 @@
       <c r="S93" t="s">
         <v>1936</v>
       </c>
+      <c r="T93" t="s">
+        <v>1936</v>
+      </c>
       <c r="U93" t="s">
         <v>1936</v>
       </c>
@@ -15850,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="AL93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:38">
@@ -16229,6 +16367,9 @@
       <c r="S97" t="s">
         <v>1936</v>
       </c>
+      <c r="T97" t="s">
+        <v>1936</v>
+      </c>
       <c r="U97" t="s">
         <v>1936</v>
       </c>
@@ -16281,7 +16422,7 @@
         <v>0</v>
       </c>
       <c r="AL97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:38">
@@ -16318,6 +16459,9 @@
       <c r="S98" t="s">
         <v>1936</v>
       </c>
+      <c r="T98" t="s">
+        <v>1936</v>
+      </c>
       <c r="U98" t="s">
         <v>1936</v>
       </c>
@@ -16370,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="AL98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:38">
@@ -16407,6 +16551,9 @@
       <c r="S99" t="s">
         <v>1936</v>
       </c>
+      <c r="T99" t="s">
+        <v>1936</v>
+      </c>
       <c r="U99" t="s">
         <v>1936</v>
       </c>
@@ -16459,7 +16606,7 @@
         <v>0</v>
       </c>
       <c r="AL99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:38">
@@ -16511,6 +16658,9 @@
       <c r="S100" t="s">
         <v>1936</v>
       </c>
+      <c r="T100" t="s">
+        <v>1936</v>
+      </c>
       <c r="U100" t="s">
         <v>1936</v>
       </c>
@@ -16563,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="AL100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:38">
@@ -16600,6 +16750,9 @@
       <c r="S101" t="s">
         <v>1936</v>
       </c>
+      <c r="T101" t="s">
+        <v>1936</v>
+      </c>
       <c r="U101" t="s">
         <v>1967</v>
       </c>
@@ -16652,7 +16805,7 @@
         <v>0</v>
       </c>
       <c r="AL101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:38">
@@ -16998,6 +17151,9 @@
       <c r="S105" t="s">
         <v>1936</v>
       </c>
+      <c r="T105" t="s">
+        <v>1936</v>
+      </c>
       <c r="U105" t="s">
         <v>1964</v>
       </c>
@@ -17050,7 +17206,7 @@
         <v>0</v>
       </c>
       <c r="AL105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:38">
@@ -17087,6 +17243,9 @@
       <c r="S106" t="s">
         <v>1936</v>
       </c>
+      <c r="T106" t="s">
+        <v>1936</v>
+      </c>
       <c r="U106" t="s">
         <v>1936</v>
       </c>
@@ -17139,7 +17298,7 @@
         <v>0</v>
       </c>
       <c r="AL106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:38">
@@ -17749,6 +17908,9 @@
       <c r="S113" t="s">
         <v>1936</v>
       </c>
+      <c r="T113" t="s">
+        <v>1936</v>
+      </c>
       <c r="U113" t="s">
         <v>1936</v>
       </c>
@@ -17801,7 +17963,7 @@
         <v>0</v>
       </c>
       <c r="AL113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:38">
@@ -17948,6 +18110,9 @@
       <c r="S115" t="s">
         <v>1936</v>
       </c>
+      <c r="T115" t="s">
+        <v>1936</v>
+      </c>
       <c r="U115" t="s">
         <v>1936</v>
       </c>
@@ -18000,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="AL115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:38">
@@ -18055,6 +18220,9 @@
       <c r="S116" t="s">
         <v>1936</v>
       </c>
+      <c r="T116" t="s">
+        <v>1936</v>
+      </c>
       <c r="U116" t="s">
         <v>1936</v>
       </c>
@@ -18107,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="AL116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:38">
@@ -18144,6 +18312,9 @@
       <c r="S117" t="s">
         <v>1936</v>
       </c>
+      <c r="T117" t="s">
+        <v>1936</v>
+      </c>
       <c r="U117" t="s">
         <v>1936</v>
       </c>
@@ -18196,7 +18367,7 @@
         <v>0</v>
       </c>
       <c r="AL117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:38">
@@ -18245,6 +18416,9 @@
       <c r="S118" t="s">
         <v>1936</v>
       </c>
+      <c r="T118" t="s">
+        <v>1936</v>
+      </c>
       <c r="U118" t="s">
         <v>1936</v>
       </c>
@@ -18297,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="AL118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:38">
@@ -18429,6 +18603,9 @@
       <c r="S120" t="s">
         <v>1936</v>
       </c>
+      <c r="T120" t="s">
+        <v>1936</v>
+      </c>
       <c r="U120" t="s">
         <v>1967</v>
       </c>
@@ -18481,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="AL120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:38">
@@ -18521,6 +18698,9 @@
       <c r="S121" t="s">
         <v>1936</v>
       </c>
+      <c r="T121" t="s">
+        <v>1936</v>
+      </c>
       <c r="U121" t="s">
         <v>1964</v>
       </c>
@@ -18573,7 +18753,7 @@
         <v>0</v>
       </c>
       <c r="AL121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:38">
@@ -18628,6 +18808,9 @@
       <c r="S122" t="s">
         <v>1936</v>
       </c>
+      <c r="T122" t="s">
+        <v>1936</v>
+      </c>
       <c r="U122" t="s">
         <v>1971</v>
       </c>
@@ -18680,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="AL122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:38">
@@ -18720,6 +18903,9 @@
       <c r="S123" t="s">
         <v>1936</v>
       </c>
+      <c r="T123" t="s">
+        <v>1936</v>
+      </c>
       <c r="U123" t="s">
         <v>1936</v>
       </c>
@@ -18772,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="AL123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:38">
@@ -18901,6 +19087,9 @@
       <c r="S125" t="s">
         <v>1936</v>
       </c>
+      <c r="T125" t="s">
+        <v>1936</v>
+      </c>
       <c r="U125" t="s">
         <v>1936</v>
       </c>
@@ -18953,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="AL125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:38">
@@ -18993,6 +19182,9 @@
       <c r="S126" t="s">
         <v>1936</v>
       </c>
+      <c r="T126" t="s">
+        <v>1936</v>
+      </c>
       <c r="U126" t="s">
         <v>1936</v>
       </c>
@@ -19045,7 +19237,7 @@
         <v>0</v>
       </c>
       <c r="AL126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:38">
@@ -19103,6 +19295,9 @@
       <c r="S127" t="s">
         <v>1940</v>
       </c>
+      <c r="T127" t="s">
+        <v>1936</v>
+      </c>
       <c r="U127" t="s">
         <v>1979</v>
       </c>
@@ -19155,7 +19350,7 @@
         <v>1</v>
       </c>
       <c r="AL127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:38">
@@ -19210,6 +19405,9 @@
       <c r="S128" t="s">
         <v>1936</v>
       </c>
+      <c r="T128" t="s">
+        <v>1936</v>
+      </c>
       <c r="U128" t="s">
         <v>1936</v>
       </c>
@@ -19262,7 +19460,7 @@
         <v>0</v>
       </c>
       <c r="AL128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:38">
@@ -19436,6 +19634,9 @@
       <c r="S130" t="s">
         <v>1938</v>
       </c>
+      <c r="T130" t="s">
+        <v>1936</v>
+      </c>
       <c r="U130" t="s">
         <v>1979</v>
       </c>
@@ -19488,7 +19689,7 @@
         <v>1</v>
       </c>
       <c r="AL130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:38">
@@ -19528,6 +19729,9 @@
       <c r="S131" t="s">
         <v>1936</v>
       </c>
+      <c r="T131" t="s">
+        <v>1936</v>
+      </c>
       <c r="U131" t="s">
         <v>1966</v>
       </c>
@@ -19580,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="AL131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:38">
@@ -19638,6 +19842,9 @@
       <c r="S132" t="s">
         <v>1936</v>
       </c>
+      <c r="T132" t="s">
+        <v>1936</v>
+      </c>
       <c r="U132" t="s">
         <v>1936</v>
       </c>
@@ -19690,7 +19897,7 @@
         <v>0</v>
       </c>
       <c r="AL132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:38">
@@ -19748,6 +19955,9 @@
       <c r="S133" t="s">
         <v>1936</v>
       </c>
+      <c r="T133" t="s">
+        <v>1936</v>
+      </c>
       <c r="U133" t="s">
         <v>1936</v>
       </c>
@@ -19800,7 +20010,7 @@
         <v>0</v>
       </c>
       <c r="AL133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:38">
@@ -19861,6 +20071,9 @@
       <c r="S134" t="s">
         <v>1936</v>
       </c>
+      <c r="T134" t="s">
+        <v>1936</v>
+      </c>
       <c r="U134" t="s">
         <v>1936</v>
       </c>
@@ -19913,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="AL134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:38">
@@ -20078,6 +20291,9 @@
       <c r="S136" t="s">
         <v>1936</v>
       </c>
+      <c r="T136" t="s">
+        <v>1936</v>
+      </c>
       <c r="U136" t="s">
         <v>1936</v>
       </c>
@@ -20130,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="AL136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:38">
@@ -20509,6 +20725,9 @@
       <c r="S140" t="s">
         <v>1943</v>
       </c>
+      <c r="T140" t="s">
+        <v>1936</v>
+      </c>
       <c r="U140" t="s">
         <v>1936</v>
       </c>
@@ -20561,7 +20780,7 @@
         <v>1</v>
       </c>
       <c r="AL140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:38">
@@ -20886,6 +21105,9 @@
       <c r="S144" t="s">
         <v>1936</v>
       </c>
+      <c r="T144" t="s">
+        <v>1936</v>
+      </c>
       <c r="U144" t="s">
         <v>1936</v>
       </c>
@@ -20938,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="AL144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:38">
@@ -21263,6 +21485,9 @@
       <c r="S148" t="s">
         <v>1936</v>
       </c>
+      <c r="T148" t="s">
+        <v>1936</v>
+      </c>
       <c r="U148" t="s">
         <v>1964</v>
       </c>
@@ -21315,7 +21540,7 @@
         <v>0</v>
       </c>
       <c r="AL148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:38">
@@ -21483,6 +21708,9 @@
       <c r="S150" t="s">
         <v>1936</v>
       </c>
+      <c r="T150" t="s">
+        <v>1936</v>
+      </c>
       <c r="U150" t="s">
         <v>1936</v>
       </c>
@@ -21535,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="AL150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:38">
@@ -21667,6 +21895,9 @@
       <c r="S152" t="s">
         <v>1936</v>
       </c>
+      <c r="T152" t="s">
+        <v>1936</v>
+      </c>
       <c r="U152" t="s">
         <v>1936</v>
       </c>
@@ -21719,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="AL152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:38">
@@ -21777,6 +22008,9 @@
       <c r="S153" t="s">
         <v>1936</v>
       </c>
+      <c r="T153" t="s">
+        <v>1936</v>
+      </c>
       <c r="U153" t="s">
         <v>1936</v>
       </c>
@@ -21829,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="AL153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:38">
@@ -21866,6 +22100,9 @@
       <c r="S154" t="s">
         <v>1940</v>
       </c>
+      <c r="T154" t="s">
+        <v>1936</v>
+      </c>
       <c r="U154" t="s">
         <v>1971</v>
       </c>
@@ -21918,7 +22155,7 @@
         <v>1</v>
       </c>
       <c r="AL154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:38">
@@ -22145,6 +22382,9 @@
       <c r="S157" t="s">
         <v>1936</v>
       </c>
+      <c r="T157" t="s">
+        <v>1936</v>
+      </c>
       <c r="U157" t="s">
         <v>1976</v>
       </c>
@@ -22197,7 +22437,7 @@
         <v>0</v>
       </c>
       <c r="AL157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:38">
@@ -22234,6 +22474,9 @@
       <c r="S158" t="s">
         <v>1936</v>
       </c>
+      <c r="T158" t="s">
+        <v>1936</v>
+      </c>
       <c r="U158" t="s">
         <v>1975</v>
       </c>
@@ -22286,7 +22529,7 @@
         <v>0</v>
       </c>
       <c r="AL158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:38">
@@ -22335,6 +22578,9 @@
       <c r="S159" t="s">
         <v>1948</v>
       </c>
+      <c r="T159" t="s">
+        <v>1936</v>
+      </c>
       <c r="U159" t="s">
         <v>1971</v>
       </c>
@@ -22387,7 +22633,7 @@
         <v>1</v>
       </c>
       <c r="AL159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:38">
@@ -22424,6 +22670,9 @@
       <c r="S160" t="s">
         <v>1936</v>
       </c>
+      <c r="T160" t="s">
+        <v>1936</v>
+      </c>
       <c r="U160" t="s">
         <v>1936</v>
       </c>
@@ -22476,7 +22725,7 @@
         <v>0</v>
       </c>
       <c r="AL160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:38">
@@ -22531,6 +22780,9 @@
       <c r="S161" t="s">
         <v>1936</v>
       </c>
+      <c r="T161" t="s">
+        <v>1936</v>
+      </c>
       <c r="U161" t="s">
         <v>1975</v>
       </c>
@@ -22583,7 +22835,7 @@
         <v>0</v>
       </c>
       <c r="AL161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:38">
@@ -22620,6 +22872,9 @@
       <c r="S162" t="s">
         <v>1936</v>
       </c>
+      <c r="T162" t="s">
+        <v>1936</v>
+      </c>
       <c r="U162" t="s">
         <v>1936</v>
       </c>
@@ -22672,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="AL162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:38">
@@ -22727,6 +22982,9 @@
       <c r="S163" t="s">
         <v>1946</v>
       </c>
+      <c r="T163" t="s">
+        <v>1936</v>
+      </c>
       <c r="U163" t="s">
         <v>1971</v>
       </c>
@@ -22779,7 +23037,7 @@
         <v>1</v>
       </c>
       <c r="AL163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:38">
@@ -22819,6 +23077,9 @@
       <c r="S164" t="s">
         <v>1936</v>
       </c>
+      <c r="T164" t="s">
+        <v>1936</v>
+      </c>
       <c r="U164" t="s">
         <v>1967</v>
       </c>
@@ -22871,7 +23132,7 @@
         <v>0</v>
       </c>
       <c r="AL164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:38">
@@ -22911,6 +23172,9 @@
       <c r="S165" t="s">
         <v>1936</v>
       </c>
+      <c r="T165" t="s">
+        <v>1936</v>
+      </c>
       <c r="U165" t="s">
         <v>1936</v>
       </c>
@@ -22963,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="AL165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:38">
@@ -23018,6 +23282,9 @@
       <c r="S166" t="s">
         <v>1936</v>
       </c>
+      <c r="T166" t="s">
+        <v>1936</v>
+      </c>
       <c r="U166" t="s">
         <v>1936</v>
       </c>
@@ -23070,7 +23337,7 @@
         <v>0</v>
       </c>
       <c r="AL166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:38">
@@ -23128,6 +23395,9 @@
       <c r="S167" t="s">
         <v>1943</v>
       </c>
+      <c r="T167" t="s">
+        <v>1936</v>
+      </c>
       <c r="U167" t="s">
         <v>1968</v>
       </c>
@@ -23180,7 +23450,7 @@
         <v>1</v>
       </c>
       <c r="AL167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:38">
@@ -23217,6 +23487,9 @@
       <c r="S168" t="s">
         <v>1936</v>
       </c>
+      <c r="T168" t="s">
+        <v>1936</v>
+      </c>
       <c r="U168" t="s">
         <v>1936</v>
       </c>
@@ -23269,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="AL168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:38">
@@ -23508,6 +23781,9 @@
       <c r="S171" t="s">
         <v>1936</v>
       </c>
+      <c r="T171" t="s">
+        <v>1936</v>
+      </c>
       <c r="U171" t="s">
         <v>1936</v>
       </c>
@@ -23560,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="AL171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:38">
@@ -23597,6 +23873,9 @@
       <c r="S172" t="s">
         <v>1936</v>
       </c>
+      <c r="T172" t="s">
+        <v>1936</v>
+      </c>
       <c r="U172" t="s">
         <v>1936</v>
       </c>
@@ -23649,7 +23928,7 @@
         <v>0</v>
       </c>
       <c r="AL172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:38">
@@ -23686,6 +23965,9 @@
       <c r="S173" t="s">
         <v>1936</v>
       </c>
+      <c r="T173" t="s">
+        <v>1936</v>
+      </c>
       <c r="U173" t="s">
         <v>1936</v>
       </c>
@@ -23738,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="AL173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:38">
@@ -23793,6 +24075,9 @@
       <c r="S174" t="s">
         <v>1946</v>
       </c>
+      <c r="T174" t="s">
+        <v>1936</v>
+      </c>
       <c r="U174" t="s">
         <v>1976</v>
       </c>
@@ -23845,7 +24130,7 @@
         <v>1</v>
       </c>
       <c r="AL174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:38">
@@ -23879,6 +24164,9 @@
       <c r="S175" t="s">
         <v>1936</v>
       </c>
+      <c r="T175" t="s">
+        <v>1936</v>
+      </c>
       <c r="U175" t="s">
         <v>1936</v>
       </c>
@@ -23931,7 +24219,7 @@
         <v>0</v>
       </c>
       <c r="AL175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:38">
@@ -23983,6 +24271,9 @@
       <c r="S176" t="s">
         <v>1936</v>
       </c>
+      <c r="T176" t="s">
+        <v>1936</v>
+      </c>
       <c r="U176" t="s">
         <v>1936</v>
       </c>
@@ -24035,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="AL176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:38">
@@ -24075,6 +24366,9 @@
       <c r="S177" t="s">
         <v>1936</v>
       </c>
+      <c r="T177" t="s">
+        <v>1936</v>
+      </c>
       <c r="U177" t="s">
         <v>1936</v>
       </c>
@@ -24127,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="AL177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:38">
@@ -24348,6 +24642,9 @@
       <c r="S180" t="s">
         <v>473</v>
       </c>
+      <c r="T180" t="s">
+        <v>1936</v>
+      </c>
       <c r="U180" t="s">
         <v>1936</v>
       </c>
@@ -24400,7 +24697,7 @@
         <v>1</v>
       </c>
       <c r="AL180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:38">
@@ -24547,6 +24844,9 @@
       <c r="S182" t="s">
         <v>1936</v>
       </c>
+      <c r="T182" t="s">
+        <v>1936</v>
+      </c>
       <c r="U182" t="s">
         <v>1967</v>
       </c>
@@ -24599,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="AL182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:38">
@@ -24823,6 +25123,9 @@
       <c r="S185" t="s">
         <v>1936</v>
       </c>
+      <c r="T185" t="s">
+        <v>1936</v>
+      </c>
       <c r="U185" t="s">
         <v>1936</v>
       </c>
@@ -24875,7 +25178,7 @@
         <v>0</v>
       </c>
       <c r="AL185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:38">
@@ -24909,6 +25212,9 @@
       <c r="S186" t="s">
         <v>1936</v>
       </c>
+      <c r="T186" t="s">
+        <v>1936</v>
+      </c>
       <c r="U186" t="s">
         <v>1967</v>
       </c>
@@ -24961,7 +25267,7 @@
         <v>0</v>
       </c>
       <c r="AL186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:38">
@@ -24992,6 +25298,9 @@
       <c r="S187" t="s">
         <v>1938</v>
       </c>
+      <c r="T187" t="s">
+        <v>1936</v>
+      </c>
       <c r="U187" t="s">
         <v>1936</v>
       </c>
@@ -25044,7 +25353,7 @@
         <v>1</v>
       </c>
       <c r="AL187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:38">
@@ -25078,6 +25387,9 @@
       <c r="S188" t="s">
         <v>1938</v>
       </c>
+      <c r="T188" t="s">
+        <v>1936</v>
+      </c>
       <c r="U188" t="s">
         <v>1936</v>
       </c>
@@ -25130,7 +25442,7 @@
         <v>1</v>
       </c>
       <c r="AL188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:38">
@@ -25164,6 +25476,9 @@
       <c r="S189" t="s">
         <v>1938</v>
       </c>
+      <c r="T189" t="s">
+        <v>1936</v>
+      </c>
       <c r="U189" t="s">
         <v>1936</v>
       </c>
@@ -25216,7 +25531,7 @@
         <v>1</v>
       </c>
       <c r="AL189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:38">
@@ -25262,6 +25577,9 @@
       <c r="S190" t="s">
         <v>1938</v>
       </c>
+      <c r="T190" t="s">
+        <v>1936</v>
+      </c>
       <c r="U190" t="s">
         <v>1936</v>
       </c>
@@ -25314,7 +25632,7 @@
         <v>1</v>
       </c>
       <c r="AL190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:38">
@@ -25351,6 +25669,9 @@
       <c r="S191" t="s">
         <v>1936</v>
       </c>
+      <c r="T191" t="s">
+        <v>1936</v>
+      </c>
       <c r="U191" t="s">
         <v>1936</v>
       </c>
@@ -25403,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="AL191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:38">
@@ -25461,6 +25782,9 @@
       <c r="S192" t="s">
         <v>1940</v>
       </c>
+      <c r="T192" t="s">
+        <v>1936</v>
+      </c>
       <c r="U192" t="s">
         <v>1936</v>
       </c>
@@ -25513,7 +25837,7 @@
         <v>1</v>
       </c>
       <c r="AL192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:38">
@@ -25568,6 +25892,9 @@
       <c r="S193" t="s">
         <v>1936</v>
       </c>
+      <c r="T193" t="s">
+        <v>1936</v>
+      </c>
       <c r="U193" t="s">
         <v>1936</v>
       </c>
@@ -25620,7 +25947,7 @@
         <v>0</v>
       </c>
       <c r="AL193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:38">
@@ -25657,6 +25984,9 @@
       <c r="S194" t="s">
         <v>1936</v>
       </c>
+      <c r="T194" t="s">
+        <v>1936</v>
+      </c>
       <c r="U194" t="s">
         <v>1936</v>
       </c>
@@ -25709,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="AL194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:38">
@@ -25746,6 +26076,9 @@
       <c r="S195" t="s">
         <v>1936</v>
       </c>
+      <c r="T195" t="s">
+        <v>1936</v>
+      </c>
       <c r="U195" t="s">
         <v>1936</v>
       </c>
@@ -25798,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="AL195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:38">
@@ -25835,6 +26168,9 @@
       <c r="S196" t="s">
         <v>1936</v>
       </c>
+      <c r="T196" t="s">
+        <v>1936</v>
+      </c>
       <c r="U196" t="s">
         <v>1936</v>
       </c>
@@ -25887,7 +26223,7 @@
         <v>0</v>
       </c>
       <c r="AL196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:38">
@@ -25924,6 +26260,9 @@
       <c r="S197" t="s">
         <v>1936</v>
       </c>
+      <c r="T197" t="s">
+        <v>1936</v>
+      </c>
       <c r="U197" t="s">
         <v>1936</v>
       </c>
@@ -25976,7 +26315,7 @@
         <v>0</v>
       </c>
       <c r="AL197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:38">
@@ -26144,6 +26483,9 @@
       <c r="S199" t="s">
         <v>1936</v>
       </c>
+      <c r="T199" t="s">
+        <v>1936</v>
+      </c>
       <c r="U199" t="s">
         <v>1936</v>
       </c>
@@ -26196,7 +26538,7 @@
         <v>0</v>
       </c>
       <c r="AL199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:38">
@@ -26254,6 +26596,9 @@
       <c r="S200" t="s">
         <v>1936</v>
       </c>
+      <c r="T200" t="s">
+        <v>1936</v>
+      </c>
       <c r="U200" t="s">
         <v>1936</v>
       </c>
@@ -26306,7 +26651,7 @@
         <v>0</v>
       </c>
       <c r="AL200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:38">
@@ -26364,6 +26709,9 @@
       <c r="S201" t="s">
         <v>473</v>
       </c>
+      <c r="T201" t="s">
+        <v>1936</v>
+      </c>
       <c r="U201" t="s">
         <v>1971</v>
       </c>
@@ -26416,7 +26764,7 @@
         <v>1</v>
       </c>
       <c r="AL201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:38">
@@ -26581,6 +26929,9 @@
       <c r="S203" t="s">
         <v>1936</v>
       </c>
+      <c r="T203" t="s">
+        <v>1936</v>
+      </c>
       <c r="U203" t="s">
         <v>1966</v>
       </c>
@@ -26633,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="AL203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:38">
@@ -26670,6 +27021,9 @@
       <c r="S204" t="s">
         <v>1936</v>
       </c>
+      <c r="T204" t="s">
+        <v>1936</v>
+      </c>
       <c r="U204" t="s">
         <v>1973</v>
       </c>
@@ -26722,7 +27076,7 @@
         <v>0</v>
       </c>
       <c r="AL204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:38">
@@ -26845,6 +27199,9 @@
       <c r="S206" t="s">
         <v>1936</v>
       </c>
+      <c r="T206" t="s">
+        <v>1936</v>
+      </c>
       <c r="U206" t="s">
         <v>1936</v>
       </c>
@@ -26897,7 +27254,7 @@
         <v>0</v>
       </c>
       <c r="AL206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:38">
@@ -26937,6 +27294,9 @@
       <c r="S207" t="s">
         <v>1936</v>
       </c>
+      <c r="T207" t="s">
+        <v>1936</v>
+      </c>
       <c r="U207" t="s">
         <v>1936</v>
       </c>
@@ -26989,7 +27349,7 @@
         <v>0</v>
       </c>
       <c r="AL207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:38">
@@ -27391,6 +27751,9 @@
       <c r="S212" t="s">
         <v>1936</v>
       </c>
+      <c r="T212" t="s">
+        <v>1936</v>
+      </c>
       <c r="U212" t="s">
         <v>1964</v>
       </c>
@@ -27443,7 +27806,7 @@
         <v>0</v>
       </c>
       <c r="AL212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:38">
@@ -27501,6 +27864,9 @@
       <c r="S213" t="s">
         <v>1946</v>
       </c>
+      <c r="T213" t="s">
+        <v>1936</v>
+      </c>
       <c r="U213" t="s">
         <v>1936</v>
       </c>
@@ -27553,7 +27919,7 @@
         <v>1</v>
       </c>
       <c r="AL213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:38">
@@ -27611,6 +27977,9 @@
       <c r="S214" t="s">
         <v>1936</v>
       </c>
+      <c r="T214" t="s">
+        <v>1936</v>
+      </c>
       <c r="U214" t="s">
         <v>1936</v>
       </c>
@@ -27663,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="AL214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:38">
@@ -27813,6 +28182,9 @@
       <c r="S216" t="s">
         <v>1936</v>
       </c>
+      <c r="T216" t="s">
+        <v>1936</v>
+      </c>
       <c r="U216" t="s">
         <v>1936</v>
       </c>
@@ -27865,7 +28237,7 @@
         <v>0</v>
       </c>
       <c r="AL216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:38">
@@ -27923,6 +28295,9 @@
       <c r="S217" t="s">
         <v>1937</v>
       </c>
+      <c r="T217" t="s">
+        <v>1936</v>
+      </c>
       <c r="U217" t="s">
         <v>1965</v>
       </c>
@@ -27975,7 +28350,7 @@
         <v>1</v>
       </c>
       <c r="AL217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:38">
@@ -28030,6 +28405,9 @@
       <c r="S218" t="s">
         <v>1936</v>
       </c>
+      <c r="T218" t="s">
+        <v>1936</v>
+      </c>
       <c r="U218" t="s">
         <v>1936</v>
       </c>
@@ -28082,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="AL218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:38">
@@ -28223,6 +28601,9 @@
       <c r="S220" t="s">
         <v>1940</v>
       </c>
+      <c r="T220" t="s">
+        <v>1936</v>
+      </c>
       <c r="U220" t="s">
         <v>1967</v>
       </c>
@@ -28275,7 +28656,7 @@
         <v>1</v>
       </c>
       <c r="AL220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:38">
@@ -28312,6 +28693,9 @@
       <c r="S221" t="s">
         <v>1936</v>
       </c>
+      <c r="T221" t="s">
+        <v>1936</v>
+      </c>
       <c r="U221" t="s">
         <v>1936</v>
       </c>
@@ -28364,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AL221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:38">
@@ -28401,6 +28785,9 @@
       <c r="S222" t="s">
         <v>1936</v>
       </c>
+      <c r="T222" t="s">
+        <v>1936</v>
+      </c>
       <c r="U222" t="s">
         <v>1936</v>
       </c>
@@ -28453,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="AL222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:38">
@@ -28734,6 +29121,9 @@
       <c r="S225" t="s">
         <v>1936</v>
       </c>
+      <c r="T225" t="s">
+        <v>1936</v>
+      </c>
       <c r="U225" t="s">
         <v>1965</v>
       </c>
@@ -28786,7 +29176,7 @@
         <v>0</v>
       </c>
       <c r="AL225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:38">
@@ -28820,6 +29210,9 @@
       <c r="S226" t="s">
         <v>1936</v>
       </c>
+      <c r="T226" t="s">
+        <v>1936</v>
+      </c>
       <c r="U226" t="s">
         <v>1936</v>
       </c>
@@ -28872,7 +29265,7 @@
         <v>0</v>
       </c>
       <c r="AL226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:38">
@@ -29138,6 +29531,9 @@
       <c r="S229" t="s">
         <v>1936</v>
       </c>
+      <c r="T229" t="s">
+        <v>1936</v>
+      </c>
       <c r="U229" t="s">
         <v>1975</v>
       </c>
@@ -29190,7 +29586,7 @@
         <v>0</v>
       </c>
       <c r="AL229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:38">
@@ -29251,6 +29647,9 @@
       <c r="S230" t="s">
         <v>1936</v>
       </c>
+      <c r="T230" t="s">
+        <v>1936</v>
+      </c>
       <c r="U230" t="s">
         <v>1966</v>
       </c>
@@ -29303,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="AL230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:38">
@@ -29735,6 +30134,9 @@
       <c r="S235" t="s">
         <v>1936</v>
       </c>
+      <c r="T235" t="s">
+        <v>1936</v>
+      </c>
       <c r="U235" t="s">
         <v>1936</v>
       </c>
@@ -29787,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="AL235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:38">
@@ -29940,6 +30342,9 @@
       <c r="S237" t="s">
         <v>1936</v>
       </c>
+      <c r="T237" t="s">
+        <v>1936</v>
+      </c>
       <c r="U237" t="s">
         <v>1936</v>
       </c>
@@ -29992,7 +30397,7 @@
         <v>0</v>
       </c>
       <c r="AL237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:38">
@@ -30032,6 +30437,9 @@
       <c r="S238" t="s">
         <v>1936</v>
       </c>
+      <c r="T238" t="s">
+        <v>1936</v>
+      </c>
       <c r="U238" t="s">
         <v>1964</v>
       </c>
@@ -30084,7 +30492,7 @@
         <v>0</v>
       </c>
       <c r="AL238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:38">
@@ -30136,6 +30544,9 @@
       <c r="S239" t="s">
         <v>1940</v>
       </c>
+      <c r="T239" t="s">
+        <v>1936</v>
+      </c>
       <c r="U239" t="s">
         <v>1936</v>
       </c>
@@ -30188,7 +30599,7 @@
         <v>1</v>
       </c>
       <c r="AL239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:38">
@@ -30225,6 +30636,9 @@
       <c r="S240" t="s">
         <v>1936</v>
       </c>
+      <c r="T240" t="s">
+        <v>1936</v>
+      </c>
       <c r="U240" t="s">
         <v>1966</v>
       </c>
@@ -30277,7 +30691,7 @@
         <v>0</v>
       </c>
       <c r="AL240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:38">
@@ -30614,6 +31028,9 @@
       <c r="S244" t="s">
         <v>1936</v>
       </c>
+      <c r="T244" t="s">
+        <v>1936</v>
+      </c>
       <c r="U244" t="s">
         <v>1936</v>
       </c>
@@ -30666,7 +31083,7 @@
         <v>0</v>
       </c>
       <c r="AL244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:38">
@@ -30721,6 +31138,9 @@
       <c r="S245" t="s">
         <v>1936</v>
       </c>
+      <c r="T245" t="s">
+        <v>1936</v>
+      </c>
       <c r="U245" t="s">
         <v>1936</v>
       </c>
@@ -30773,7 +31193,7 @@
         <v>0</v>
       </c>
       <c r="AL245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:38">
@@ -30810,6 +31230,9 @@
       <c r="S246" t="s">
         <v>1936</v>
       </c>
+      <c r="T246" t="s">
+        <v>1936</v>
+      </c>
       <c r="U246" t="s">
         <v>1936</v>
       </c>
@@ -30862,7 +31285,7 @@
         <v>0</v>
       </c>
       <c r="AL246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:38">
@@ -30920,6 +31343,9 @@
       <c r="S247" t="s">
         <v>1938</v>
       </c>
+      <c r="T247" t="s">
+        <v>1936</v>
+      </c>
       <c r="U247" t="s">
         <v>1936</v>
       </c>
@@ -30972,7 +31398,7 @@
         <v>1</v>
       </c>
       <c r="AL247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:38">
@@ -31009,6 +31435,9 @@
       <c r="S248" t="s">
         <v>1936</v>
       </c>
+      <c r="T248" t="s">
+        <v>1936</v>
+      </c>
       <c r="U248" t="s">
         <v>1970</v>
       </c>
@@ -31061,7 +31490,7 @@
         <v>0</v>
       </c>
       <c r="AL248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:38">
@@ -31098,6 +31527,9 @@
       <c r="S249" t="s">
         <v>1940</v>
       </c>
+      <c r="T249" t="s">
+        <v>1936</v>
+      </c>
       <c r="U249" t="s">
         <v>1974</v>
       </c>
@@ -31150,7 +31582,7 @@
         <v>1</v>
       </c>
       <c r="AL249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:38">
@@ -31511,6 +31943,9 @@
       <c r="S253" t="s">
         <v>1936</v>
       </c>
+      <c r="T253" t="s">
+        <v>1936</v>
+      </c>
       <c r="U253" t="s">
         <v>1964</v>
       </c>
@@ -31563,7 +31998,7 @@
         <v>0</v>
       </c>
       <c r="AL253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:38">
@@ -31734,6 +32169,9 @@
       <c r="S255" t="s">
         <v>1946</v>
       </c>
+      <c r="T255" t="s">
+        <v>1936</v>
+      </c>
       <c r="U255" t="s">
         <v>1971</v>
       </c>
@@ -31786,7 +32224,7 @@
         <v>1</v>
       </c>
       <c r="AL255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:38">
@@ -31841,6 +32279,9 @@
       <c r="S256" t="s">
         <v>1945</v>
       </c>
+      <c r="T256" t="s">
+        <v>1936</v>
+      </c>
       <c r="U256" t="s">
         <v>1936</v>
       </c>
@@ -31893,7 +32334,7 @@
         <v>1</v>
       </c>
       <c r="AL256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:38">
@@ -31933,6 +32374,9 @@
       <c r="S257" t="s">
         <v>1936</v>
       </c>
+      <c r="T257" t="s">
+        <v>1936</v>
+      </c>
       <c r="U257" t="s">
         <v>1970</v>
       </c>
@@ -31985,7 +32429,7 @@
         <v>0</v>
       </c>
       <c r="AL257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:38">
@@ -32028,6 +32472,9 @@
       <c r="S258" t="s">
         <v>1936</v>
       </c>
+      <c r="T258" t="s">
+        <v>1936</v>
+      </c>
       <c r="U258" t="s">
         <v>1972</v>
       </c>
@@ -32080,7 +32527,7 @@
         <v>0</v>
       </c>
       <c r="AL258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:38">
@@ -32212,6 +32659,9 @@
       <c r="S260" t="s">
         <v>1936</v>
       </c>
+      <c r="T260" t="s">
+        <v>1936</v>
+      </c>
       <c r="U260" t="s">
         <v>1971</v>
       </c>
@@ -32264,7 +32714,7 @@
         <v>0</v>
       </c>
       <c r="AL260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:38">
@@ -32316,6 +32766,9 @@
       <c r="S261" t="s">
         <v>1943</v>
       </c>
+      <c r="T261" t="s">
+        <v>1936</v>
+      </c>
       <c r="U261" t="s">
         <v>1936</v>
       </c>
@@ -32368,7 +32821,7 @@
         <v>1</v>
       </c>
       <c r="AL261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:38">
@@ -32610,6 +33063,9 @@
       <c r="S264" t="s">
         <v>1936</v>
       </c>
+      <c r="T264" t="s">
+        <v>1936</v>
+      </c>
       <c r="U264" t="s">
         <v>1970</v>
       </c>
@@ -32662,7 +33118,7 @@
         <v>0</v>
       </c>
       <c r="AL264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:38">
@@ -32702,6 +33158,9 @@
       <c r="S265" t="s">
         <v>1936</v>
       </c>
+      <c r="T265" t="s">
+        <v>1936</v>
+      </c>
       <c r="U265" t="s">
         <v>1973</v>
       </c>
@@ -32754,7 +33213,7 @@
         <v>0</v>
       </c>
       <c r="AL265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:38">
@@ -32812,6 +33271,9 @@
       <c r="S266" t="s">
         <v>473</v>
       </c>
+      <c r="T266" t="s">
+        <v>1936</v>
+      </c>
       <c r="U266" t="s">
         <v>1936</v>
       </c>
@@ -32864,7 +33326,7 @@
         <v>1</v>
       </c>
       <c r="AL266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:38">
@@ -33234,6 +33696,9 @@
       <c r="S270" t="s">
         <v>1936</v>
       </c>
+      <c r="T270" t="s">
+        <v>1936</v>
+      </c>
       <c r="U270" t="s">
         <v>1936</v>
       </c>
@@ -33286,7 +33751,7 @@
         <v>0</v>
       </c>
       <c r="AL270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:38">
@@ -33314,6 +33779,9 @@
       <c r="S271" t="s">
         <v>1936</v>
       </c>
+      <c r="T271" t="s">
+        <v>1936</v>
+      </c>
       <c r="U271" t="s">
         <v>1970</v>
       </c>
@@ -33366,7 +33834,7 @@
         <v>0</v>
       </c>
       <c r="AL271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:38">
@@ -33427,6 +33895,9 @@
       <c r="S272" t="s">
         <v>1946</v>
       </c>
+      <c r="T272" t="s">
+        <v>1936</v>
+      </c>
       <c r="U272" t="s">
         <v>1936</v>
       </c>
@@ -33479,7 +33950,7 @@
         <v>1</v>
       </c>
       <c r="AL272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:38">
@@ -33537,6 +34008,9 @@
       <c r="S273" t="s">
         <v>1936</v>
       </c>
+      <c r="T273" t="s">
+        <v>1936</v>
+      </c>
       <c r="U273" t="s">
         <v>1936</v>
       </c>
@@ -33589,7 +34063,7 @@
         <v>0</v>
       </c>
       <c r="AL273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:38">
@@ -33629,6 +34103,9 @@
       <c r="S274" t="s">
         <v>1940</v>
       </c>
+      <c r="T274" t="s">
+        <v>1936</v>
+      </c>
       <c r="U274" t="s">
         <v>1972</v>
       </c>
@@ -33681,7 +34158,7 @@
         <v>1</v>
       </c>
       <c r="AL274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:38">
@@ -33813,6 +34290,9 @@
       <c r="S276" t="s">
         <v>1936</v>
       </c>
+      <c r="T276" t="s">
+        <v>1936</v>
+      </c>
       <c r="U276" t="s">
         <v>1967</v>
       </c>
@@ -33865,7 +34345,7 @@
         <v>0</v>
       </c>
       <c r="AL276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:38">
@@ -34113,6 +34593,9 @@
       <c r="S279" t="s">
         <v>1937</v>
       </c>
+      <c r="T279" t="s">
+        <v>1936</v>
+      </c>
       <c r="U279" t="s">
         <v>1977</v>
       </c>
@@ -34165,7 +34648,7 @@
         <v>1</v>
       </c>
       <c r="AL279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:38">
@@ -34205,6 +34688,9 @@
       <c r="S280" t="s">
         <v>1936</v>
       </c>
+      <c r="T280" t="s">
+        <v>1936</v>
+      </c>
       <c r="U280" t="s">
         <v>1967</v>
       </c>
@@ -34257,7 +34743,7 @@
         <v>0</v>
       </c>
       <c r="AL280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:38">
@@ -34297,6 +34783,9 @@
       <c r="S281" t="s">
         <v>1936</v>
       </c>
+      <c r="T281" t="s">
+        <v>1936</v>
+      </c>
       <c r="U281" t="s">
         <v>1936</v>
       </c>
@@ -34349,7 +34838,7 @@
         <v>0</v>
       </c>
       <c r="AL281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:38">
@@ -34389,6 +34878,9 @@
       <c r="S282" t="s">
         <v>1936</v>
       </c>
+      <c r="T282" t="s">
+        <v>1936</v>
+      </c>
       <c r="U282" t="s">
         <v>1936</v>
       </c>
@@ -34441,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="AL282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:38">
@@ -34478,6 +34970,9 @@
       <c r="S283" t="s">
         <v>1954</v>
       </c>
+      <c r="T283" t="s">
+        <v>1936</v>
+      </c>
       <c r="U283" t="s">
         <v>1976</v>
       </c>
@@ -34530,7 +35025,7 @@
         <v>1</v>
       </c>
       <c r="AL283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:38">
@@ -34570,6 +35065,9 @@
       <c r="S284" t="s">
         <v>1936</v>
       </c>
+      <c r="T284" t="s">
+        <v>1936</v>
+      </c>
       <c r="U284" t="s">
         <v>1964</v>
       </c>
@@ -34622,7 +35120,7 @@
         <v>0</v>
       </c>
       <c r="AL284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:38">
@@ -34659,6 +35157,9 @@
       <c r="S285" t="s">
         <v>1936</v>
       </c>
+      <c r="T285" t="s">
+        <v>1936</v>
+      </c>
       <c r="U285" t="s">
         <v>1970</v>
       </c>
@@ -34711,7 +35212,7 @@
         <v>0</v>
       </c>
       <c r="AL285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:38">
@@ -34766,6 +35267,9 @@
       <c r="S286" t="s">
         <v>1941</v>
       </c>
+      <c r="T286" t="s">
+        <v>1936</v>
+      </c>
       <c r="U286" t="s">
         <v>1936</v>
       </c>
@@ -34818,7 +35322,7 @@
         <v>1</v>
       </c>
       <c r="AL286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:38">
@@ -34873,6 +35377,9 @@
       <c r="S287" t="s">
         <v>1947</v>
       </c>
+      <c r="T287" t="s">
+        <v>1936</v>
+      </c>
       <c r="U287" t="s">
         <v>1936</v>
       </c>
@@ -34925,7 +35432,7 @@
         <v>1</v>
       </c>
       <c r="AL287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:38">
@@ -35191,6 +35698,9 @@
       <c r="S290" t="s">
         <v>1936</v>
       </c>
+      <c r="T290" t="s">
+        <v>1936</v>
+      </c>
       <c r="U290" t="s">
         <v>1967</v>
       </c>
@@ -35243,7 +35753,7 @@
         <v>0</v>
       </c>
       <c r="AL290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:38">
@@ -35280,6 +35790,9 @@
       <c r="S291" t="s">
         <v>1936</v>
       </c>
+      <c r="T291" t="s">
+        <v>1936</v>
+      </c>
       <c r="U291" t="s">
         <v>1936</v>
       </c>
@@ -35332,7 +35845,7 @@
         <v>0</v>
       </c>
       <c r="AL291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:38">
@@ -35369,6 +35882,9 @@
       <c r="S292" t="s">
         <v>1936</v>
       </c>
+      <c r="T292" t="s">
+        <v>1936</v>
+      </c>
       <c r="U292" t="s">
         <v>1936</v>
       </c>
@@ -35421,7 +35937,7 @@
         <v>0</v>
       </c>
       <c r="AL292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:38">
@@ -35461,6 +35977,9 @@
       <c r="S293" t="s">
         <v>1936</v>
       </c>
+      <c r="T293" t="s">
+        <v>1936</v>
+      </c>
       <c r="U293" t="s">
         <v>1936</v>
       </c>
@@ -35513,7 +36032,7 @@
         <v>0</v>
       </c>
       <c r="AL293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:38">
@@ -35871,6 +36390,9 @@
       <c r="S297" t="s">
         <v>1946</v>
       </c>
+      <c r="T297" t="s">
+        <v>1936</v>
+      </c>
       <c r="U297" t="s">
         <v>1936</v>
       </c>
@@ -35923,7 +36445,7 @@
         <v>1</v>
       </c>
       <c r="AL297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:38">
@@ -36067,6 +36589,9 @@
       <c r="S299" t="s">
         <v>1936</v>
       </c>
+      <c r="T299" t="s">
+        <v>1936</v>
+      </c>
       <c r="U299" t="s">
         <v>1936</v>
       </c>
@@ -36119,7 +36644,7 @@
         <v>0</v>
       </c>
       <c r="AL299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:38">
@@ -36156,6 +36681,9 @@
       <c r="S300" t="s">
         <v>1936</v>
       </c>
+      <c r="T300" t="s">
+        <v>1936</v>
+      </c>
       <c r="U300" t="s">
         <v>1936</v>
       </c>
@@ -36208,7 +36736,7 @@
         <v>0</v>
       </c>
       <c r="AL300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:38">
@@ -36263,6 +36791,9 @@
       <c r="S301" t="s">
         <v>1936</v>
       </c>
+      <c r="T301" t="s">
+        <v>1936</v>
+      </c>
       <c r="U301" t="s">
         <v>1936</v>
       </c>
@@ -36315,7 +36846,7 @@
         <v>0</v>
       </c>
       <c r="AL301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:38">
@@ -36373,6 +36904,9 @@
       <c r="S302" t="s">
         <v>1957</v>
       </c>
+      <c r="T302" t="s">
+        <v>1936</v>
+      </c>
       <c r="U302" t="s">
         <v>1981</v>
       </c>
@@ -36425,7 +36959,7 @@
         <v>1</v>
       </c>
       <c r="AL302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:38">
@@ -36483,6 +37017,9 @@
       <c r="S303" t="s">
         <v>1936</v>
       </c>
+      <c r="T303" t="s">
+        <v>1936</v>
+      </c>
       <c r="U303" t="s">
         <v>1967</v>
       </c>
@@ -36535,7 +37072,7 @@
         <v>0</v>
       </c>
       <c r="AL303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:38">
@@ -36593,6 +37130,9 @@
       <c r="S304" t="s">
         <v>1949</v>
       </c>
+      <c r="T304" t="s">
+        <v>1936</v>
+      </c>
       <c r="U304" t="s">
         <v>1936</v>
       </c>
@@ -36645,7 +37185,7 @@
         <v>1</v>
       </c>
       <c r="AL304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:38">
@@ -36682,6 +37222,9 @@
       <c r="S305" t="s">
         <v>1936</v>
       </c>
+      <c r="T305" t="s">
+        <v>1936</v>
+      </c>
       <c r="U305" t="s">
         <v>1982</v>
       </c>
@@ -36734,7 +37277,7 @@
         <v>0</v>
       </c>
       <c r="AL305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:38">
@@ -36774,6 +37317,9 @@
       <c r="S306" t="s">
         <v>1938</v>
       </c>
+      <c r="T306" t="s">
+        <v>1936</v>
+      </c>
       <c r="U306" t="s">
         <v>1966</v>
       </c>
@@ -36826,7 +37372,7 @@
         <v>1</v>
       </c>
       <c r="AL306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:38">
@@ -37101,6 +37647,9 @@
       <c r="S309" t="s">
         <v>1936</v>
       </c>
+      <c r="T309" t="s">
+        <v>1936</v>
+      </c>
       <c r="U309" t="s">
         <v>1936</v>
       </c>
@@ -37153,7 +37702,7 @@
         <v>0</v>
       </c>
       <c r="AL309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:38">
@@ -37193,6 +37742,9 @@
       <c r="S310" t="s">
         <v>1936</v>
       </c>
+      <c r="T310" t="s">
+        <v>1936</v>
+      </c>
       <c r="U310" t="s">
         <v>1936</v>
       </c>
@@ -37245,7 +37797,7 @@
         <v>0</v>
       </c>
       <c r="AL310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:38">
@@ -37285,6 +37837,9 @@
       <c r="S311" t="s">
         <v>1936</v>
       </c>
+      <c r="T311" t="s">
+        <v>1936</v>
+      </c>
       <c r="U311" t="s">
         <v>1936</v>
       </c>
@@ -37337,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="AL311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:38">
@@ -37508,6 +38063,9 @@
       <c r="S313" t="s">
         <v>1936</v>
       </c>
+      <c r="T313" t="s">
+        <v>1936</v>
+      </c>
       <c r="U313" t="s">
         <v>1936</v>
       </c>
@@ -37560,7 +38118,7 @@
         <v>0</v>
       </c>
       <c r="AL313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:38">
@@ -37716,6 +38274,9 @@
       <c r="S315" t="s">
         <v>1936</v>
       </c>
+      <c r="T315" t="s">
+        <v>1936</v>
+      </c>
       <c r="U315" t="s">
         <v>1964</v>
       </c>
@@ -37768,7 +38329,7 @@
         <v>0</v>
       </c>
       <c r="AL315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:38">
@@ -37936,6 +38497,9 @@
       <c r="S317" t="s">
         <v>1938</v>
       </c>
+      <c r="T317" t="s">
+        <v>1936</v>
+      </c>
       <c r="U317" t="s">
         <v>1969</v>
       </c>
@@ -37988,7 +38552,7 @@
         <v>1</v>
       </c>
       <c r="AL317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:38">
@@ -38046,6 +38610,9 @@
       <c r="S318" t="s">
         <v>1936</v>
       </c>
+      <c r="T318" t="s">
+        <v>1936</v>
+      </c>
       <c r="U318" t="s">
         <v>1967</v>
       </c>
@@ -38098,7 +38665,7 @@
         <v>0</v>
       </c>
       <c r="AL318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:38">
@@ -38153,6 +38720,9 @@
       <c r="S319" t="s">
         <v>473</v>
       </c>
+      <c r="T319" t="s">
+        <v>1936</v>
+      </c>
       <c r="U319" t="s">
         <v>1936</v>
       </c>
@@ -38205,7 +38775,7 @@
         <v>1</v>
       </c>
       <c r="AL319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:38">
@@ -38260,6 +38830,9 @@
       <c r="S320" t="s">
         <v>1958</v>
       </c>
+      <c r="T320" t="s">
+        <v>1936</v>
+      </c>
       <c r="U320" t="s">
         <v>1936</v>
       </c>
@@ -38312,7 +38885,7 @@
         <v>1</v>
       </c>
       <c r="AL320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:38">
@@ -38352,6 +38925,9 @@
       <c r="S321" t="s">
         <v>1936</v>
       </c>
+      <c r="T321" t="s">
+        <v>1936</v>
+      </c>
       <c r="U321" t="s">
         <v>1984</v>
       </c>
@@ -38404,7 +38980,7 @@
         <v>0</v>
       </c>
       <c r="AL321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:38">
@@ -38429,6 +39005,9 @@
       <c r="S322" t="s">
         <v>1949</v>
       </c>
+      <c r="T322" t="s">
+        <v>1936</v>
+      </c>
       <c r="U322" t="s">
         <v>1972</v>
       </c>
@@ -38481,7 +39060,7 @@
         <v>1</v>
       </c>
       <c r="AL322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:38">
@@ -38542,6 +39121,9 @@
       <c r="S323" t="s">
         <v>1936</v>
       </c>
+      <c r="T323" t="s">
+        <v>1936</v>
+      </c>
       <c r="U323" t="s">
         <v>1971</v>
       </c>
@@ -38594,7 +39176,7 @@
         <v>0</v>
       </c>
       <c r="AL323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:38">
@@ -38649,6 +39231,9 @@
       <c r="S324" t="s">
         <v>1938</v>
       </c>
+      <c r="T324" t="s">
+        <v>1936</v>
+      </c>
       <c r="U324" t="s">
         <v>1984</v>
       </c>
@@ -38701,7 +39286,7 @@
         <v>1</v>
       </c>
       <c r="AL324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:38">
@@ -38759,6 +39344,9 @@
       <c r="S325" t="s">
         <v>1943</v>
       </c>
+      <c r="T325" t="s">
+        <v>1936</v>
+      </c>
       <c r="U325" t="s">
         <v>1936</v>
       </c>
@@ -38811,7 +39399,7 @@
         <v>1</v>
       </c>
       <c r="AL325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:38">
@@ -38943,6 +39531,9 @@
       <c r="S327" t="s">
         <v>1936</v>
       </c>
+      <c r="T327" t="s">
+        <v>1936</v>
+      </c>
       <c r="U327" t="s">
         <v>1977</v>
       </c>
@@ -38995,7 +39586,7 @@
         <v>0</v>
       </c>
       <c r="AL327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:38">
@@ -39032,6 +39623,9 @@
       <c r="S328" t="s">
         <v>1936</v>
       </c>
+      <c r="T328" t="s">
+        <v>1936</v>
+      </c>
       <c r="U328" t="s">
         <v>1967</v>
       </c>
@@ -39084,7 +39678,7 @@
         <v>0</v>
       </c>
       <c r="AL328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:38">
@@ -39124,6 +39718,9 @@
       <c r="S329" t="s">
         <v>1936</v>
       </c>
+      <c r="T329" t="s">
+        <v>1936</v>
+      </c>
       <c r="U329" t="s">
         <v>1976</v>
       </c>
@@ -39176,7 +39773,7 @@
         <v>0</v>
       </c>
       <c r="AL329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:38">
@@ -39186,6 +39783,9 @@
       <c r="S330" t="s">
         <v>1936</v>
       </c>
+      <c r="T330" t="s">
+        <v>1936</v>
+      </c>
       <c r="U330" t="s">
         <v>1964</v>
       </c>
@@ -39238,7 +39838,7 @@
         <v>0</v>
       </c>
       <c r="AL330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
